--- a/xlsx/country_comparison/radical_redistr_all_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_all_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -64,11 +67,12 @@
     <t xml:space="preserve">Prefers sustainable future*</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas*</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -454,13 +458,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.683286671200591</v>
+        <v>0.693996120467564</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -487,21 +494,24 @@
         <v>0.603572620182626</v>
       </c>
       <c r="K2" t="n">
-        <v>0.691563351816597</v>
+        <v>0.691681993781983</v>
       </c>
       <c r="L2" t="n">
+        <v>0.754855071318372</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.817345461694808</v>
       </c>
-      <c r="M2" t="n">
-        <v>0.622354397487081</v>
+      <c r="N2" t="n">
+        <v>0.622335501686223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.623345952924007</v>
+        <v>0.641188431291775</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -528,21 +538,24 @@
         <v>0.420104611305175</v>
       </c>
       <c r="K3" t="n">
-        <v>0.55047661217434</v>
+        <v>0.550394111458431</v>
       </c>
       <c r="L3" t="n">
+        <v>0.756622372880961</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.816920760799125</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.574114671968279</v>
+      <c r="N3" t="n">
+        <v>0.57421952327369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.679366394096195</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
@@ -569,21 +582,24 @@
         <v>0.665468662233116</v>
       </c>
       <c r="K4" t="n">
-        <v>0.757961572913613</v>
+        <v>0.758076861129753</v>
       </c>
       <c r="L4" t="n">
+        <v>0.688615273248795</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.713280127381035</v>
       </c>
-      <c r="M4" t="n">
-        <v>0.61682403920896</v>
+      <c r="N4" t="n">
+        <v>0.616918649447641</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.690994277929796</v>
+        <v>0.704965329416964</v>
       </c>
       <c r="C5" t="n">
         <v>0.780310385878786</v>
@@ -610,62 +626,66 @@
         <v>0.660378064524565</v>
       </c>
       <c r="K5" t="n">
-        <v>0.703723773724232</v>
+        <v>0.703727559204962</v>
       </c>
       <c r="L5" t="n">
+        <v>0.778963825426238</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.930231790695484</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.560975861057092</v>
+      <c r="N5" t="n">
+        <v>0.561007628053552</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.517681293588919</v>
+        <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.54627578656303</v>
+        <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.530038042676022</v>
+        <v>0.699222514786681</v>
       </c>
       <c r="E6" t="n">
-        <v>0.525216461992543</v>
+        <v>0.688082663981164</v>
       </c>
       <c r="F6" t="n">
-        <v>0.574663014312723</v>
+        <v>0.819338712934373</v>
       </c>
       <c r="G6" t="n">
-        <v>0.541227742327436</v>
+        <v>0.708420268414952</v>
       </c>
       <c r="H6" t="n">
-        <v>0.57000212855437</v>
+        <v>0.74352822863702</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5501691998004</v>
+        <v>0.68138828161491</v>
       </c>
       <c r="J6" t="n">
-        <v>0.48406365355452</v>
+        <v>0.639531813440066</v>
       </c>
       <c r="K6" t="n">
-        <v>0.510803804042151</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.404576421408372</v>
-      </c>
+        <v>0.557841849059486</v>
+      </c>
+      <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.497966802692056</v>
+        <v>0.727098526374066</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.666651932459956</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.682646370364011</v>
+        <v>0.682631646934764</v>
       </c>
       <c r="C7" t="n">
         <v>0.724046548532723</v>
@@ -692,19 +712,20 @@
         <v>0.578158388278922</v>
       </c>
       <c r="K7" t="n">
-        <v>0.55749509108139</v>
+        <v>0.557598270145635</v>
       </c>
       <c r="L7"/>
-      <c r="M7" t="n">
-        <v>0.669518884533573</v>
+      <c r="M7"/>
+      <c r="N7" t="n">
+        <v>0.669431535311024</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.451745267822287</v>
+        <v>0.451810364536854</v>
       </c>
       <c r="C8" t="n">
         <v>0.502618407568093</v>
@@ -728,16 +749,17 @@
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
-      <c r="M8" t="n">
-        <v>0.401050394755232</v>
+      <c r="M8"/>
+      <c r="N8" t="n">
+        <v>0.401158464849325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.595124310025602</v>
+        <v>0.592122368373113</v>
       </c>
       <c r="C9" t="n">
         <v>0.609896497471146</v>
@@ -764,18 +786,21 @@
         <v>0.538340937683521</v>
       </c>
       <c r="K9" t="n">
-        <v>0.583970917094862</v>
+        <v>0.584137117430032</v>
       </c>
       <c r="L9" t="n">
+        <v>0.573182308826315</v>
+      </c>
+      <c r="M9" t="n">
         <v>0.888820570273345</v>
       </c>
-      <c r="M9" t="n">
-        <v>0.554373497970374</v>
+      <c r="N9" t="n">
+        <v>0.554219568199052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="e">
         <v>#NUM!</v>
@@ -805,10 +830,11 @@
       <c r="K10" t="e">
         <v>#NUM!</v>
       </c>
-      <c r="L10" t="e">
-        <v>#NUM!</v>
-      </c>
+      <c r="L10"/>
       <c r="M10" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="N10" t="e">
         <v>#NUM!</v>
       </c>
     </row>

--- a/xlsx/country_comparison/radical_redistr_all_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_all_share.xlsx
@@ -64,7 +64,7 @@
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
-    <t xml:space="preserve">Prefers sustainable future*</t>
+    <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
     <t xml:space="preserve">"Governments should actively cooperate to have all countries
@@ -467,7 +467,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693996120467564</v>
+        <v>0.693991148793208</v>
       </c>
       <c r="C2" t="n">
         <v>0.727267133682238</v>
@@ -497,7 +497,7 @@
         <v>0.691681993781983</v>
       </c>
       <c r="L2" t="n">
-        <v>0.754855071318372</v>
+        <v>0.754180914635801</v>
       </c>
       <c r="M2" t="n">
         <v>0.817345461694808</v>
@@ -511,7 +511,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.641188431291775</v>
+        <v>0.641501546421187</v>
       </c>
       <c r="C3" t="n">
         <v>0.663594295554775</v>
@@ -541,7 +541,7 @@
         <v>0.550394111458431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.756622372880961</v>
+        <v>0.759131699735939</v>
       </c>
       <c r="M3" t="n">
         <v>0.816920760799125</v>
@@ -555,43 +555,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
         <v>0.701539116816613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.719673932778947</v>
+        <v>0.721220700610068</v>
       </c>
       <c r="E4" t="n">
-        <v>0.704645953003574</v>
+        <v>0.703415187125182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.760434225154626</v>
+        <v>0.759706650286704</v>
       </c>
       <c r="G4" t="n">
-        <v>0.572739428737827</v>
+        <v>0.575101001313061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.73608837047601</v>
+        <v>0.731116681894394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.679200342355269</v>
+        <v>0.68337742404715</v>
       </c>
       <c r="J4" t="n">
-        <v>0.665468662233116</v>
+        <v>0.659704988708263</v>
       </c>
       <c r="K4" t="n">
-        <v>0.758076861129753</v>
+        <v>0.759539408850822</v>
       </c>
       <c r="L4" t="n">
-        <v>0.688615273248795</v>
+        <v>0.689906588508866</v>
       </c>
       <c r="M4" t="n">
-        <v>0.713280127381035</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="N4" t="n">
-        <v>0.616918649447641</v>
+        <v>0.618731104894089</v>
       </c>
     </row>
     <row r="5">
@@ -599,43 +599,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.704965329416964</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C5" t="n">
         <v>0.780310385878786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.761687470249255</v>
+        <v>0.767261516731427</v>
       </c>
       <c r="E5" t="n">
-        <v>0.758489172765931</v>
+        <v>0.757541746745335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.874100026122781</v>
+        <v>0.874984008964506</v>
       </c>
       <c r="G5" t="n">
-        <v>0.843596425922759</v>
+        <v>0.847206298409435</v>
       </c>
       <c r="H5" t="n">
-        <v>0.842976707711552</v>
+        <v>0.842339547896952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.658792898536381</v>
+        <v>0.65799487387268</v>
       </c>
       <c r="J5" t="n">
-        <v>0.660378064524565</v>
+        <v>0.656332785129309</v>
       </c>
       <c r="K5" t="n">
-        <v>0.703727559204962</v>
+        <v>0.703874631903231</v>
       </c>
       <c r="L5" t="n">
-        <v>0.778963825426238</v>
+        <v>0.777883926828007</v>
       </c>
       <c r="M5" t="n">
-        <v>0.930231790695484</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="N5" t="n">
-        <v>0.561007628053552</v>
+        <v>0.562406199574745</v>
       </c>
     </row>
     <row r="6">
@@ -649,35 +649,37 @@
         <v>0.719216740354837</v>
       </c>
       <c r="D6" t="n">
-        <v>0.699222514786681</v>
+        <v>0.703425024778734</v>
       </c>
       <c r="E6" t="n">
-        <v>0.688082663981164</v>
+        <v>0.690418272415403</v>
       </c>
       <c r="F6" t="n">
-        <v>0.819338712934373</v>
+        <v>0.817088824971887</v>
       </c>
       <c r="G6" t="n">
-        <v>0.708420268414952</v>
+        <v>0.707832398863728</v>
       </c>
       <c r="H6" t="n">
-        <v>0.74352822863702</v>
+        <v>0.743080145118413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.68138828161491</v>
+        <v>0.682786565268408</v>
       </c>
       <c r="J6" t="n">
-        <v>0.639531813440066</v>
+        <v>0.629978960602202</v>
       </c>
       <c r="K6" t="n">
-        <v>0.557841849059486</v>
-      </c>
-      <c r="L6"/>
+        <v>0.559364498889858</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.559364498889858</v>
+      </c>
       <c r="M6" t="n">
-        <v>0.727098526374066</v>
+        <v>0.729122438104651</v>
       </c>
       <c r="N6" t="n">
-        <v>0.666651932459956</v>
+        <v>0.667115559981111</v>
       </c>
     </row>
     <row r="7">
@@ -691,33 +693,33 @@
         <v>0.724046548532723</v>
       </c>
       <c r="D7" t="n">
-        <v>0.71331522240695</v>
+        <v>0.716446447911511</v>
       </c>
       <c r="E7" t="n">
-        <v>0.70786414424213</v>
+        <v>0.705443804036464</v>
       </c>
       <c r="F7" t="n">
-        <v>0.817943755181141</v>
+        <v>0.815943040010246</v>
       </c>
       <c r="G7" t="n">
-        <v>0.642319300405405</v>
+        <v>0.639135429260725</v>
       </c>
       <c r="H7" t="n">
-        <v>0.765355431118643</v>
+        <v>0.765218616839628</v>
       </c>
       <c r="I7" t="n">
-        <v>0.695445383221243</v>
+        <v>0.694592504615592</v>
       </c>
       <c r="J7" t="n">
-        <v>0.578158388278922</v>
+        <v>0.566948275489208</v>
       </c>
       <c r="K7" t="n">
-        <v>0.557598270145635</v>
+        <v>0.557987381952544</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.669431535311024</v>
+        <v>0.670153434751546</v>
       </c>
     </row>
     <row r="8">
@@ -731,27 +733,27 @@
         <v>0.502618407568093</v>
       </c>
       <c r="D8" t="n">
-        <v>0.437375697519216</v>
+        <v>0.438407527923474</v>
       </c>
       <c r="E8" t="n">
-        <v>0.43866370099415</v>
+        <v>0.439022530105316</v>
       </c>
       <c r="F8" t="n">
-        <v>0.696737544675098</v>
+        <v>0.693097173376912</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.507401270303301</v>
+        <v>0.510821694970915</v>
       </c>
       <c r="I8" t="n">
-        <v>0.458595587653966</v>
+        <v>0.457151305629475</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>0.401158464849325</v>
+        <v>0.400676565778138</v>
       </c>
     </row>
     <row r="9">
@@ -759,83 +761,87 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.592122368373113</v>
+        <v>0.591975291077805</v>
       </c>
       <c r="C9" t="n">
         <v>0.609896497471146</v>
       </c>
       <c r="D9" t="n">
-        <v>0.432040689538255</v>
+        <v>0.432966587857026</v>
       </c>
       <c r="E9" t="n">
-        <v>0.620111679474376</v>
+        <v>0.623667021276442</v>
       </c>
       <c r="F9" t="n">
-        <v>0.766975357539963</v>
+        <v>0.765866950290479</v>
       </c>
       <c r="G9" t="n">
-        <v>0.618309495622478</v>
+        <v>0.633729019702456</v>
       </c>
       <c r="H9" t="n">
-        <v>0.708786744917504</v>
+        <v>0.702512213956321</v>
       </c>
       <c r="I9" t="n">
-        <v>0.574354517212933</v>
+        <v>0.575699232924345</v>
       </c>
       <c r="J9" t="n">
-        <v>0.538340937683521</v>
+        <v>0.53058178548063</v>
       </c>
       <c r="K9" t="n">
-        <v>0.584137117430032</v>
+        <v>0.586217425103406</v>
       </c>
       <c r="L9" t="n">
-        <v>0.573182308826315</v>
+        <v>0.572781630922761</v>
       </c>
       <c r="M9" t="n">
-        <v>0.888820570273345</v>
+        <v>0.887006592651732</v>
       </c>
       <c r="N9" t="n">
-        <v>0.554219568199052</v>
+        <v>0.554098197443099</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="C10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="H10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="I10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="J10"/>
-      <c r="K10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="L10"/>
-      <c r="M10" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="N10" t="e">
-        <v>#NUM!</v>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_all_share.xlsx
+++ b/xlsx/country_comparison/radical_redistr_all_share.xlsx
@@ -56,11 +56,11 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+    <t xml:space="preserve">Accepts tax on world top 1% to finance global poverty reduction
 (Additional 15% tax on income over [$120k/year in PPP])</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+    <t xml:space="preserve">Accepts tax on world top 3% to finance global poverty reduction
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
@@ -79,14 +79,14 @@
 coalition for climate action and global redistribution</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
+    <t xml:space="preserve">Accepts reparations for colonization and slavery in
 the form of funding education and technology transfers</t>
   </si>
   <si>
     <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
   <si>
-    <t xml:space="preserve">"My taxes ... global problems" (Global Nation, 2024)</t>
+    <t xml:space="preserve">"My taxes ... global problems" (Global Nation, 2023)</t>
   </si>
 </sst>
 </file>
@@ -805,43 +805,37 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.55719177445442</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.590740460977192</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+        <v>0.52</v>
+      </c>
+      <c r="J10"/>
       <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
+        <v>0.76</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
